--- a/natmiOut/OldD0/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.0778544928483</v>
+        <v>60.90318633333334</v>
       </c>
       <c r="H2">
-        <v>48.0778544928483</v>
+        <v>182.709559</v>
       </c>
       <c r="I2">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="J2">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.4880053015694</v>
+        <v>87.481206</v>
       </c>
       <c r="N2">
-        <v>33.4880053015694</v>
+        <v>262.443618</v>
       </c>
       <c r="O2">
-        <v>0.7545219574765698</v>
+        <v>0.8890954013316028</v>
       </c>
       <c r="P2">
-        <v>0.7545219574765698</v>
+        <v>0.8890954013316029</v>
       </c>
       <c r="Q2">
-        <v>1610.031446144586</v>
+        <v>5327.884189682718</v>
       </c>
       <c r="R2">
-        <v>1610.031446144586</v>
+        <v>47950.95770714447</v>
       </c>
       <c r="S2">
-        <v>0.3215924763531144</v>
+        <v>0.4266788982711357</v>
       </c>
       <c r="T2">
-        <v>0.3215924763531144</v>
+        <v>0.4266788982711358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.0778544928483</v>
+        <v>60.90318633333334</v>
       </c>
       <c r="H3">
-        <v>48.0778544928483</v>
+        <v>182.709559</v>
       </c>
       <c r="I3">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="J3">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3564440400131</v>
+        <v>10.36557633333333</v>
       </c>
       <c r="N3">
-        <v>10.3564440400131</v>
+        <v>31.096729</v>
       </c>
       <c r="O3">
-        <v>0.2333421880222</v>
+        <v>0.1053481847303107</v>
       </c>
       <c r="P3">
-        <v>0.2333421880222</v>
+        <v>0.1053481847303107</v>
       </c>
       <c r="Q3">
-        <v>497.9156096190758</v>
+        <v>631.2966268813901</v>
       </c>
       <c r="R3">
-        <v>497.9156096190758</v>
+        <v>5681.669641932512</v>
       </c>
       <c r="S3">
-        <v>0.09945514685176488</v>
+        <v>0.05055683262816501</v>
       </c>
       <c r="T3">
-        <v>0.09945514685176488</v>
+        <v>0.05055683262816502</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.0778544928483</v>
+        <v>60.90318633333334</v>
       </c>
       <c r="H4">
-        <v>48.0778544928483</v>
+        <v>182.709559</v>
       </c>
       <c r="I4">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="J4">
-        <v>0.4262201691633353</v>
+        <v>0.4799022665420342</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5386265513537331</v>
+        <v>0.546715</v>
       </c>
       <c r="N4">
-        <v>0.5386265513537331</v>
+        <v>1.640145</v>
       </c>
       <c r="O4">
-        <v>0.01213585450123023</v>
+        <v>0.005556413938086396</v>
       </c>
       <c r="P4">
-        <v>0.01213585450123023</v>
+        <v>0.005556413938086396</v>
       </c>
       <c r="Q4">
-        <v>25.89600896196946</v>
+        <v>33.29668551622833</v>
       </c>
       <c r="R4">
-        <v>25.89600896196946</v>
+        <v>299.670169646055</v>
       </c>
       <c r="S4">
-        <v>0.005172545958455972</v>
+        <v>0.002666535642733411</v>
       </c>
       <c r="T4">
-        <v>0.005172545958455972</v>
+        <v>0.002666535642733411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.5602779327366</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H5">
-        <v>50.5602779327366</v>
+        <v>154.277046</v>
       </c>
       <c r="I5">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="J5">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.4880053015694</v>
+        <v>87.481206</v>
       </c>
       <c r="N5">
-        <v>33.4880053015694</v>
+        <v>262.443618</v>
       </c>
       <c r="O5">
-        <v>0.7545219574765698</v>
+        <v>0.8890954013316028</v>
       </c>
       <c r="P5">
-        <v>0.7545219574765698</v>
+        <v>0.8890954013316029</v>
       </c>
       <c r="Q5">
-        <v>1693.162855460306</v>
+        <v>4498.780680732491</v>
       </c>
       <c r="R5">
-        <v>1693.162855460306</v>
+        <v>40489.02612659243</v>
       </c>
       <c r="S5">
-        <v>0.338197391647524</v>
+        <v>0.3602808762501874</v>
       </c>
       <c r="T5">
-        <v>0.338197391647524</v>
+        <v>0.3602808762501874</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.5602779327366</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H6">
-        <v>50.5602779327366</v>
+        <v>154.277046</v>
       </c>
       <c r="I6">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="J6">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.3564440400131</v>
+        <v>10.36557633333333</v>
       </c>
       <c r="N6">
-        <v>10.3564440400131</v>
+        <v>31.096729</v>
       </c>
       <c r="O6">
-        <v>0.2333421880222</v>
+        <v>0.1053481847303107</v>
       </c>
       <c r="P6">
-        <v>0.2333421880222</v>
+        <v>0.1053481847303107</v>
       </c>
       <c r="Q6">
-        <v>523.6246890578958</v>
+        <v>533.0568322647259</v>
       </c>
       <c r="R6">
-        <v>523.6246890578958</v>
+        <v>4797.511490382533</v>
       </c>
       <c r="S6">
-        <v>0.1045903549505181</v>
+        <v>0.0426893854688233</v>
       </c>
       <c r="T6">
-        <v>0.1045903549505181</v>
+        <v>0.0426893854688233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.5602779327366</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H7">
-        <v>50.5602779327366</v>
+        <v>154.277046</v>
       </c>
       <c r="I7">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="J7">
-        <v>0.4482273687283992</v>
+        <v>0.405221842009972</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5386265513537331</v>
+        <v>0.546715</v>
       </c>
       <c r="N7">
-        <v>0.5386265513537331</v>
+        <v>1.640145</v>
       </c>
       <c r="O7">
-        <v>0.01213585450123023</v>
+        <v>0.005556413938086396</v>
       </c>
       <c r="P7">
-        <v>0.01213585450123023</v>
+        <v>0.005556413938086396</v>
       </c>
       <c r="Q7">
-        <v>27.23310813839617</v>
+        <v>28.11519173463</v>
       </c>
       <c r="R7">
-        <v>27.23310813839617</v>
+        <v>253.03672561167</v>
       </c>
       <c r="S7">
-        <v>0.005439622130357125</v>
+        <v>0.002251580290961252</v>
       </c>
       <c r="T7">
-        <v>0.005439622130357125</v>
+        <v>0.002251580290961252</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1623823581817</v>
+        <v>14.57860966666667</v>
       </c>
       <c r="H8">
-        <v>14.1623823581817</v>
+        <v>43.735829</v>
       </c>
       <c r="I8">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="J8">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.4880053015694</v>
+        <v>87.481206</v>
       </c>
       <c r="N8">
-        <v>33.4880053015694</v>
+        <v>262.443618</v>
       </c>
       <c r="O8">
-        <v>0.7545219574765698</v>
+        <v>0.8890954013316028</v>
       </c>
       <c r="P8">
-        <v>0.7545219574765698</v>
+        <v>0.8890954013316029</v>
       </c>
       <c r="Q8">
-        <v>474.2699354936418</v>
+        <v>1275.354355443258</v>
       </c>
       <c r="R8">
-        <v>474.2699354936418</v>
+        <v>11478.18919898932</v>
       </c>
       <c r="S8">
-        <v>0.09473208947593136</v>
+        <v>0.1021356268102797</v>
       </c>
       <c r="T8">
-        <v>0.09473208947593136</v>
+        <v>0.1021356268102797</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1623823581817</v>
+        <v>14.57860966666667</v>
       </c>
       <c r="H9">
-        <v>14.1623823581817</v>
+        <v>43.735829</v>
       </c>
       <c r="I9">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="J9">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.3564440400131</v>
+        <v>10.36557633333333</v>
       </c>
       <c r="N9">
-        <v>10.3564440400131</v>
+        <v>31.096729</v>
       </c>
       <c r="O9">
-        <v>0.2333421880222</v>
+        <v>0.1053481847303107</v>
       </c>
       <c r="P9">
-        <v>0.2333421880222</v>
+        <v>0.1053481847303107</v>
       </c>
       <c r="Q9">
-        <v>146.6719203657775</v>
+        <v>151.1156913337045</v>
       </c>
       <c r="R9">
-        <v>146.6719203657775</v>
+        <v>1360.041222003341</v>
       </c>
       <c r="S9">
-        <v>0.02929668621991703</v>
+        <v>0.01210196663332237</v>
       </c>
       <c r="T9">
-        <v>0.02929668621991703</v>
+        <v>0.01210196663332237</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.1623823581817</v>
+        <v>14.57860966666667</v>
       </c>
       <c r="H10">
-        <v>14.1623823581817</v>
+        <v>43.735829</v>
       </c>
       <c r="I10">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="J10">
-        <v>0.1255524621082655</v>
+        <v>0.1148758914479938</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5386265513537331</v>
+        <v>0.546715</v>
       </c>
       <c r="N10">
-        <v>0.5386265513537331</v>
+        <v>1.640145</v>
       </c>
       <c r="O10">
-        <v>0.01213585450123023</v>
+        <v>0.005556413938086396</v>
       </c>
       <c r="P10">
-        <v>0.01213585450123023</v>
+        <v>0.005556413938086396</v>
       </c>
       <c r="Q10">
-        <v>7.628235168540359</v>
+        <v>7.970344583911665</v>
       </c>
       <c r="R10">
-        <v>7.628235168540359</v>
+        <v>71.73310125520499</v>
       </c>
       <c r="S10">
-        <v>0.001523686412417132</v>
+        <v>0.0006382980043917327</v>
       </c>
       <c r="T10">
-        <v>0.001523686412417132</v>
+        <v>0.0006382980043917327</v>
       </c>
     </row>
   </sheetData>
